--- a/data/trans_camb/P2405-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2405-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2405-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2405-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,29</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 0,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,31; 1,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,66; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 0,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,56; 0,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,18; 0,82</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,8%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,68%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,55%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,4%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-85,4; 193,92</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-41,31; 520,77</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,3; 82,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,19; 409,46</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,26; 1,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,13; 0,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,06; 0,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 0,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,01; 0,5</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>237,76%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>109,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>291,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>133,81%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>17,28; 932,9</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-43,17; 558,92</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,24; 1161,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,56; 561,06</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,43</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 1,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,37; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,65; 0,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,86; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,61; 0,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; -0,15</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,27%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,8%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,76%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 492,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,12</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,03; 0,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 0,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 0,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,24; 0,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,04; 0,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 0,33</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,98%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,41%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,61%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,67%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,31%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,1%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>1,58; 287,49</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>-21,29; 217,36</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,63; 194,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,21; 173,95</t>
         </is>
       </c>
     </row>
